--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/202617.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/202617.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="2" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="2" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2" t="n">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="2" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2" t="n">
         <v>0</v>
@@ -1744,22 +1744,22 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="2" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="2" t="n">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="2" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="2" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="2" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1871,25 +1871,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="2" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="2" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="2" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2" t="n">
         <v>0</v>
@@ -2264,23 +2264,23 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="V14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" s="2" t="n">
         <v>0</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="2" t="n">
         <v>0</v>
@@ -2309,17 +2309,17 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="AG14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ14" s="2" t="n">
         <v>0</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="2" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2385,29 +2385,29 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>2</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2436,17 +2436,17 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
         <v>2</v>
       </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2" t="n">
         <v>0</v>
@@ -2524,62 +2524,62 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="V16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ16" s="2" t="n">
         <v>0</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="2" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2645,68 +2645,68 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
         <v>2</v>
       </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2" t="n">
         <v>0</v>
@@ -2784,23 +2784,23 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="V18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="W18" s="2" t="n">
         <v>0</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="2" t="n">
         <v>0</v>
@@ -2829,17 +2829,17 @@
         <v>0</v>
       </c>
       <c r="AF18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AG18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ18" s="2" t="n">
         <v>0</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="2" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2905,29 +2905,29 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>3</v>
       </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -2956,17 +2956,17 @@
         <v>0</v>
       </c>
       <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
         <v>3</v>
       </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ19" t="n">
         <v>0</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2" t="n">
         <v>0</v>
@@ -3044,62 +3044,62 @@
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="V20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ20" s="2" t="n">
         <v>0</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="2" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3171,62 +3171,62 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
         <v>3</v>
       </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2" t="n">
         <v>0</v>
@@ -3304,23 +3304,23 @@
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V22" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="W22" s="2" t="n">
         <v>0</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="2" t="n">
         <v>0</v>
@@ -3349,17 +3349,17 @@
         <v>0</v>
       </c>
       <c r="AF22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AG22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ22" s="2" t="n">
         <v>0</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="2" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3431,23 +3431,23 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>4</v>
       </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -3473,20 +3473,20 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
         <v>4</v>
       </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ23" t="n">
         <v>0</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2" t="n">
         <v>0</v>
@@ -3564,62 +3564,62 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="W24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="V24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ24" s="2" t="n">
         <v>0</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="2" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3691,62 +3691,62 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
         <v>4</v>
       </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ25" t="n">
         <v>0</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2" t="n">
         <v>0</v>
@@ -3824,23 +3824,23 @@
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="V26" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" s="2" t="n">
         <v>0</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="2" t="n">
         <v>0</v>
@@ -3869,17 +3869,17 @@
         <v>0</v>
       </c>
       <c r="AF26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AG26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ26" s="2" t="n">
         <v>0</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="2" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3951,23 +3951,23 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>5</v>
       </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -3993,20 +3993,20 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
         <v>5</v>
       </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ27" t="n">
         <v>0</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2" t="n">
         <v>0</v>
@@ -4084,62 +4084,62 @@
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="V28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ28" s="2" t="n">
         <v>0</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="2" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4211,62 +4211,62 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>6</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
         <v>5</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ29" t="n">
         <v>0</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="2" t="n">
         <v>0</v>
@@ -4344,62 +4344,62 @@
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="V30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ30" s="2" t="n">
         <v>0</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="2" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4471,62 +4471,62 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>6</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
         <v>5</v>
       </c>
-      <c r="V31" t="n">
-        <v>1</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ31" t="n">
         <v>0</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -4598,68 +4598,68 @@
         <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="V32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ32" s="2" t="n">
         <v>0</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="2" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -4725,29 +4725,29 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>6</v>
       </c>
-      <c r="V33" t="n">
-        <v>1</v>
-      </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33" t="n">
         <v>1</v>
@@ -4773,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ33" t="n">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0</v>
@@ -4858,29 +4858,29 @@
         <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V34" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W34" s="2" t="n">
         <v>0</v>
       </c>
@@ -4909,17 +4909,17 @@
         <v>0</v>
       </c>
       <c r="AF34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AG34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ34" s="2" t="n">
         <v>0</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="AL34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="2" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -4976,40 +4976,40 @@
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>6</v>
       </c>
-      <c r="V35" t="n">
-        <v>1</v>
-      </c>
       <c r="W35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -5033,20 +5033,20 @@
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
         <v>6</v>
       </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ35" t="n">
         <v>0</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0</v>
@@ -5118,29 +5118,29 @@
         <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V36" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W36" s="2" t="n">
         <v>0</v>
       </c>
@@ -5169,25 +5169,25 @@
         <v>0</v>
       </c>
       <c r="AF36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AG36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="2" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -5245,28 +5245,28 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -5293,28 +5293,28 @@
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
         <v>6</v>
       </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
         <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0</v>
@@ -5378,29 +5378,29 @@
         <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V38" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W38" s="2" t="n">
         <v>0</v>
       </c>
@@ -5429,25 +5429,25 @@
         <v>0</v>
       </c>
       <c r="AF38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AG38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="2" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -5505,29 +5505,29 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
         <v>6</v>
       </c>
-      <c r="V39" t="n">
-        <v>1</v>
-      </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" t="n">
         <v>1</v>
@@ -5544,37 +5544,37 @@
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC39" t="n">
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
         <v>0</v>
       </c>
       <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
         <v>6</v>
       </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39" t="n">
         <v>0</v>
       </c>
       <c r="AL39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>1</v>
@@ -5638,29 +5638,29 @@
         <v>0</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V40" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W40" s="2" t="n">
         <v>0</v>
       </c>
@@ -5689,25 +5689,25 @@
         <v>0</v>
       </c>
       <c r="AF40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AG40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="2" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>1</v>
@@ -5771,29 +5771,29 @@
         <v>0</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V41" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W41" s="2" t="n">
         <v>0</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="2" t="n">
         <v>0</v>
@@ -5822,25 +5822,25 @@
         <v>0</v>
       </c>
       <c r="AF41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AG41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="2" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -5898,29 +5898,29 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
         <v>6</v>
       </c>
-      <c r="V42" t="n">
-        <v>1</v>
-      </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
@@ -5937,37 +5937,37 @@
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
         <v>6</v>
       </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" t="n">
         <v>0</v>
       </c>
       <c r="AL42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>1</v>
@@ -6031,31 +6031,31 @@
         <v>0</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V43" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" s="2" t="n">
         <v>0</v>
@@ -6067,13 +6067,13 @@
         <v>1</v>
       </c>
       <c r="AA43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="2" t="n">
         <v>0</v>
@@ -6082,25 +6082,25 @@
         <v>0</v>
       </c>
       <c r="AF43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AG43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="2" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -6158,31 +6158,31 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
         <v>6</v>
       </c>
-      <c r="V44" t="n">
-        <v>1</v>
-      </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -6200,34 +6200,34 @@
         <v>1</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
         <v>6</v>
       </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" t="n">
         <v>0</v>
       </c>
       <c r="AL44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>1</v>
@@ -6291,31 +6291,31 @@
         <v>0</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V45" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="2" t="n">
         <v>0</v>
@@ -6327,13 +6327,13 @@
         <v>1</v>
       </c>
       <c r="AA45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="2" t="n">
         <v>0</v>
@@ -6342,25 +6342,25 @@
         <v>0</v>
       </c>
       <c r="AF45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AG45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="2" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -6412,37 +6412,37 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
         <v>6</v>
       </c>
-      <c r="V46" t="n">
-        <v>1</v>
-      </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -6454,13 +6454,13 @@
         <v>1</v>
       </c>
       <c r="AA46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
         <v>1</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -6469,25 +6469,25 @@
         <v>0</v>
       </c>
       <c r="AF46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
         <v>6</v>
       </c>
-      <c r="AG46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK46" t="n">
         <v>1</v>
       </c>
       <c r="AL46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" t="inlineStr">
         <is>
@@ -6521,13 +6521,13 @@
         <v>1</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0</v>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>1</v>
@@ -6551,31 +6551,31 @@
         <v>0</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V47" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" s="2" t="n">
         <v>0</v>
@@ -6587,13 +6587,13 @@
         <v>1</v>
       </c>
       <c r="AA47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="2" t="n">
         <v>0</v>
@@ -6602,17 +6602,17 @@
         <v>0</v>
       </c>
       <c r="AF47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AG47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ47" s="2" t="n">
         <v>1</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="AL47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="2" t="inlineStr">
         <is>
@@ -6648,13 +6648,13 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -6672,35 +6672,35 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
       </c>
       <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
         <v>6</v>
       </c>
-      <c r="V48" t="n">
-        <v>1</v>
-      </c>
       <c r="W48" t="n">
         <v>1</v>
       </c>
@@ -6714,13 +6714,13 @@
         <v>1</v>
       </c>
       <c r="AA48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="n">
         <v>1</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -6729,25 +6729,25 @@
         <v>0</v>
       </c>
       <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
         <v>6</v>
       </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK48" t="n">
         <v>1</v>
       </c>
       <c r="AL48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" t="inlineStr">
         <is>
@@ -6781,22 +6781,22 @@
         <v>1</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>1</v>
@@ -6811,31 +6811,31 @@
         <v>0</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V49" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" s="2" t="n">
         <v>0</v>
@@ -6847,32 +6847,32 @@
         <v>1</v>
       </c>
       <c r="AA49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AG49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ49" s="2" t="n">
         <v>1</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="AL49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="2" t="inlineStr">
         <is>
@@ -6908,22 +6908,22 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
@@ -6935,34 +6935,34 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
       </c>
       <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
         <v>6</v>
       </c>
-      <c r="V50" t="n">
-        <v>1</v>
-      </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -6974,40 +6974,40 @@
         <v>1</v>
       </c>
       <c r="AA50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50" t="n">
         <v>1</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
         <v>0</v>
       </c>
       <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
         <v>6</v>
       </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" t="inlineStr">
         <is>
@@ -7041,22 +7041,22 @@
         <v>1</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>1</v>
@@ -7068,37 +7068,37 @@
         <v>0</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V51" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="2" t="n">
         <v>0</v>
@@ -7107,32 +7107,32 @@
         <v>1</v>
       </c>
       <c r="AA51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AG51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ51" s="2" t="n">
         <v>1</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="AL51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="2" t="inlineStr">
         <is>
@@ -7168,64 +7168,64 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
       </c>
       <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
         <v>6</v>
       </c>
-      <c r="V52" t="n">
-        <v>1</v>
-      </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
         <v>0</v>
@@ -7234,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="AA52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52" t="n">
         <v>1</v>
@@ -7249,25 +7249,25 @@
         <v>0</v>
       </c>
       <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
         <v>6</v>
       </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK52" t="n">
         <v>1</v>
       </c>
       <c r="AL52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" t="inlineStr">
         <is>
@@ -7301,22 +7301,22 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2" t="n">
         <v>1</v>
@@ -7328,37 +7328,37 @@
         <v>0</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V53" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="2" t="n">
         <v>0</v>
@@ -7367,32 +7367,32 @@
         <v>1</v>
       </c>
       <c r="AA53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI53" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AG53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ53" s="2" t="n">
         <v>1</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="AL53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="2" t="inlineStr">
         <is>
@@ -7428,22 +7428,22 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
@@ -7455,37 +7455,37 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
       </c>
       <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
         <v>6</v>
       </c>
-      <c r="V54" t="n">
-        <v>1</v>
-      </c>
       <c r="W54" t="n">
         <v>1</v>
       </c>
       <c r="X54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
         <v>0</v>
@@ -7494,32 +7494,32 @@
         <v>1</v>
       </c>
       <c r="AA54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54" t="n">
         <v>1</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
         <v>0</v>
       </c>
       <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI54" t="n">
         <v>6</v>
       </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ54" t="n">
         <v>1</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="AL54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" t="inlineStr">
         <is>
@@ -7561,22 +7561,22 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="n">
         <v>1</v>
@@ -7588,37 +7588,37 @@
         <v>0</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V55" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="2" t="n">
         <v>0</v>
@@ -7627,32 +7627,32 @@
         <v>1</v>
       </c>
       <c r="AA55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AC55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AG55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ55" s="2" t="n">
         <v>1</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="AL55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="2" t="inlineStr">
         <is>
@@ -7694,22 +7694,22 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="n">
         <v>1</v>
@@ -7724,34 +7724,34 @@
         <v>1</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="V56" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="W56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="2" t="n">
         <v>0</v>
@@ -7766,26 +7766,26 @@
         <v>1</v>
       </c>
       <c r="AC56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AG56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ56" s="2" t="n">
         <v>1</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="AL56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" s="2" t="inlineStr">
         <is>
